--- a/data/trans_orig/P1422-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE80EF3-DCC6-49A9-ABF1-7652BBEEB8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1195FDC3-9BE8-4D34-B854-CF9CD42CD6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E8B762C-F0F8-4176-A3C6-65167CE5B53F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DDF5109-9CB1-4FB7-A0ED-47F19DA6B2B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="195">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,517 +76,553 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A218BE3D-A810-4AD1-BDDF-6CBF0F11E517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE09FE9E-BBBC-4919-A4A7-0BF44EFCDAF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1298,7 +1334,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -1307,13 +1343,13 @@
         <v>17307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,13 +1364,13 @@
         <v>1953058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1627</v>
@@ -1343,28 +1379,28 @@
         <v>1748184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3472</v>
       </c>
       <c r="N8" s="7">
-        <v>3701243</v>
+        <v>3701242</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,7 +1442,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1420,7 +1456,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1432,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1447,13 +1483,13 @@
         <v>1100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1462,13 +1498,13 @@
         <v>1100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,10 +1519,10 @@
         <v>481181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1498,13 +1534,13 @@
         <v>457531</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -1513,13 +1549,13 @@
         <v>938712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1623,13 @@
         <v>33622</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -1602,13 +1638,13 @@
         <v>25379</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -1617,13 +1653,13 @@
         <v>59001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,13 +1674,13 @@
         <v>3386160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>3268</v>
@@ -1653,28 +1689,28 @@
         <v>3525641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>6440</v>
       </c>
       <c r="N14" s="7">
-        <v>6911800</v>
+        <v>6911801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1752,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1730,7 +1766,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA7403-C242-4307-B3E1-1ECBF0C1464D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699AD28-1864-4CA5-8E87-D67407935EDB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1766,7 +1802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1873,13 +1909,13 @@
         <v>8680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -1888,13 +1924,13 @@
         <v>11045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -1903,13 +1939,13 @@
         <v>19725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1960,13 @@
         <v>745667</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>883</v>
@@ -1939,13 +1975,13 @@
         <v>983615</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>1635</v>
@@ -1954,13 +1990,13 @@
         <v>1729282</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2064,13 @@
         <v>7971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2043,13 +2079,13 @@
         <v>6441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2058,13 +2094,13 @@
         <v>14412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2115,13 @@
         <v>2068414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>1902</v>
@@ -2094,13 +2130,13 @@
         <v>1981859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>3847</v>
@@ -2109,10 +2145,10 @@
         <v>4050273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>113</v>
@@ -2171,7 +2207,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2186,10 +2222,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2198,13 +2234,13 @@
         <v>3314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2216,7 +2252,7 @@
         <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>118</v>
@@ -2237,10 +2273,10 @@
         <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -2249,13 +2285,13 @@
         <v>545826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>1020</v>
@@ -2270,7 +2306,7 @@
         <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2374,13 @@
         <v>21568</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2353,10 +2389,10 @@
         <v>20800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>126</v>
@@ -2368,13 +2404,13 @@
         <v>42368</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2425,13 @@
         <v>3356050</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>3309</v>
@@ -2404,13 +2440,13 @@
         <v>3511300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>6502</v>
@@ -2419,13 +2455,13 @@
         <v>6867350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2517,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962F58F4-E1E5-48A6-A964-BEF4E6CE380B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215D1EA6-228B-4ADE-9944-4AC9F9C4F6B9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,7 +2553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2624,13 +2660,13 @@
         <v>15535</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -2639,13 +2675,13 @@
         <v>23026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -2654,13 +2690,13 @@
         <v>38561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2711,13 @@
         <v>525028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>1386</v>
@@ -2690,13 +2726,13 @@
         <v>809460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>2052</v>
@@ -2705,13 +2741,13 @@
         <v>1334488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2815,13 @@
         <v>25100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2794,13 +2830,13 @@
         <v>13612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2809,13 +2845,13 @@
         <v>38712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2866,13 @@
         <v>2134263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>2894</v>
@@ -2845,28 +2881,28 @@
         <v>2234306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>4853</v>
       </c>
       <c r="N8" s="7">
-        <v>4368569</v>
+        <v>4368568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,7 +2944,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4407281</v>
+        <v>4407280</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2922,7 +2958,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2934,13 +2970,13 @@
         <v>4584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2949,13 +2985,13 @@
         <v>1852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2964,13 +3000,13 @@
         <v>6436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +3021,13 @@
         <v>668455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>999</v>
@@ -3000,13 +3036,13 @@
         <v>711875</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1675</v>
@@ -3015,13 +3051,13 @@
         <v>1380330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,10 +3128,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3104,13 +3140,13 @@
         <v>38490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -3119,13 +3155,13 @@
         <v>83709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,10 +3179,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>5279</v>
@@ -3155,13 +3191,13 @@
         <v>3755641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>8580</v>
@@ -3170,13 +3206,13 @@
         <v>7083387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,7 +3268,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1195FDC3-9BE8-4D34-B854-CF9CD42CD6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C2330C-90FD-4A8A-96FF-693590306627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DDF5109-9CB1-4FB7-A0ED-47F19DA6B2B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7736C7B1-6E51-43CE-A482-1ECB050BC841}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="185">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -88,16 +88,16 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,05%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,16 +106,16 @@
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,95%</t>
+    <t>97,8%</t>
   </si>
   <si>
     <t>99,16%</t>
@@ -124,10 +124,10 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,487 +142,457 @@
     <t>0,3%</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
     <t>98,83%</t>
   </si>
   <si>
     <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE09FE9E-BBBC-4919-A4A7-0BF44EFCDAF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF51A823-61A0-48F3-9503-46FB7D833EF9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1391,7 +1361,7 @@
         <v>3472</v>
       </c>
       <c r="N8" s="7">
-        <v>3701242</v>
+        <v>3701243</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1442,7 +1412,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1641,10 +1611,10 @@
         <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -1653,10 +1623,10 @@
         <v>59001</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>71</v>
@@ -1695,22 +1665,22 @@
         <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>6440</v>
       </c>
       <c r="N14" s="7">
-        <v>6911801</v>
+        <v>6911800</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1722,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1785,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699AD28-1864-4CA5-8E87-D67407935EDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735F4EE3-27A8-4298-BF2F-9B32D7EFC21A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1927,10 +1897,10 @@
         <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -1978,10 +1948,10 @@
         <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>1635</v>
@@ -2070,7 +2040,7 @@
         <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2079,13 +2049,13 @@
         <v>6441</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2094,13 +2064,13 @@
         <v>14412</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2085,13 @@
         <v>2068414</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>1902</v>
@@ -2130,13 +2100,13 @@
         <v>1981859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>3847</v>
@@ -2145,13 +2115,13 @@
         <v>4050273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2189,13 @@
         <v>4917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2234,7 +2204,7 @@
         <v>3314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>51</v>
@@ -2249,13 +2219,13 @@
         <v>8232</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2240,13 @@
         <v>541969</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -2285,10 +2255,10 @@
         <v>545826</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>58</v>
@@ -2306,7 +2276,7 @@
         <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2344,13 @@
         <v>21568</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2392,10 +2362,10 @@
         <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2404,13 +2374,13 @@
         <v>42368</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2395,13 @@
         <v>3356050</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>3309</v>
@@ -2443,10 +2413,10 @@
         <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>6502</v>
@@ -2455,13 +2425,13 @@
         <v>6867350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215D1EA6-228B-4ADE-9944-4AC9F9C4F6B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68FA3DC-E364-435A-BAB1-99D4F948C99D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2553,7 +2523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2660,13 +2630,13 @@
         <v>15535</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -2675,13 +2645,13 @@
         <v>23026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -2690,13 +2660,13 @@
         <v>38561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2681,13 @@
         <v>525028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>1386</v>
@@ -2726,13 +2696,13 @@
         <v>809460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
         <v>2052</v>
@@ -2741,13 +2711,13 @@
         <v>1334488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2785,13 @@
         <v>25100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2830,13 +2800,13 @@
         <v>13612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2845,13 +2815,13 @@
         <v>38712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2836,13 @@
         <v>2134263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>2894</v>
@@ -2881,13 +2851,13 @@
         <v>2234306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>4853</v>
@@ -2896,10 +2866,10 @@
         <v>4368568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>74</v>
@@ -2970,13 +2940,13 @@
         <v>4584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2985,13 +2955,13 @@
         <v>1852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3000,13 +2970,13 @@
         <v>6436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,10 +2991,10 @@
         <v>668455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -3036,13 +3006,13 @@
         <v>711875</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1675</v>
@@ -3051,13 +3021,13 @@
         <v>1380330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,10 +3098,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3140,13 +3110,13 @@
         <v>38490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -3155,13 +3125,13 @@
         <v>83709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,10 +3149,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>5279</v>
@@ -3191,13 +3161,13 @@
         <v>3755641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>8580</v>
@@ -3206,13 +3176,13 @@
         <v>7083387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1422-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C2330C-90FD-4A8A-96FF-693590306627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7921DE82-0C20-4848-A9A7-8D4A16ABEA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7736C7B1-6E51-43CE-A482-1ECB050BC841}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9398695C-5993-4FF1-A856-626CCD8C24CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,457 +70,460 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -535,13 +538,7 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>99,78%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -553,46 +550,43 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>98,61%</t>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF51A823-61A0-48F3-9503-46FB7D833EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4867E3-7666-4A99-874A-5FB199583951}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1304,7 +1298,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -1313,13 +1307,13 @@
         <v>17307</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,13 +1328,13 @@
         <v>1953058</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1627</v>
@@ -1349,13 +1343,13 @@
         <v>1748184</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3472</v>
@@ -1364,13 +1358,13 @@
         <v>3701243</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,7 +1420,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1438,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1453,13 +1447,13 @@
         <v>1100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1468,13 +1462,13 @@
         <v>1100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,10 +1483,10 @@
         <v>481181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1504,13 +1498,13 @@
         <v>457531</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -1519,13 +1513,13 @@
         <v>938712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1587,13 @@
         <v>33622</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -1608,13 +1602,13 @@
         <v>25379</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -1623,13 +1617,13 @@
         <v>59001</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,13 +1638,13 @@
         <v>3386160</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>3268</v>
@@ -1659,13 +1653,13 @@
         <v>3525641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>6440</v>
@@ -1674,13 +1668,13 @@
         <v>6911800</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,7 +1730,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735F4EE3-27A8-4298-BF2F-9B32D7EFC21A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE1761F-1CB3-44BF-BC2C-1556CCC23A77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1772,7 +1766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1879,13 +1873,13 @@
         <v>8680</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -1894,13 +1888,13 @@
         <v>11045</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -1909,13 +1903,13 @@
         <v>19725</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1924,13 @@
         <v>745667</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>883</v>
@@ -1945,13 +1939,13 @@
         <v>983615</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>1635</v>
@@ -1960,13 +1954,13 @@
         <v>1729282</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2028,13 @@
         <v>7971</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2049,13 +2043,13 @@
         <v>6441</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2088,10 +2082,10 @@
         <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>1902</v>
@@ -2100,13 +2094,13 @@
         <v>1981859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>3847</v>
@@ -2115,13 +2109,13 @@
         <v>4050273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2171,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2189,13 +2183,13 @@
         <v>4917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2204,13 +2198,13 @@
         <v>3314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2219,13 +2213,13 @@
         <v>8232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2234,13 @@
         <v>541969</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -2255,13 +2249,13 @@
         <v>545826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>1020</v>
@@ -2276,7 +2270,7 @@
         <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2338,13 @@
         <v>21568</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2359,13 +2353,13 @@
         <v>20800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2374,13 +2368,13 @@
         <v>42368</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2389,13 @@
         <v>3356050</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>3309</v>
@@ -2410,13 +2404,13 @@
         <v>3511300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7">
         <v>6502</v>
@@ -2425,13 +2419,13 @@
         <v>6867350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68FA3DC-E364-435A-BAB1-99D4F948C99D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A20359-553A-41D5-AC1D-915B204755CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2523,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2630,13 +2624,13 @@
         <v>15535</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -2645,13 +2639,13 @@
         <v>23026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -2660,13 +2654,13 @@
         <v>38561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2675,13 @@
         <v>525028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
         <v>1386</v>
@@ -2696,10 +2690,10 @@
         <v>809460</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>121</v>
@@ -2711,13 +2705,13 @@
         <v>1334488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2779,13 @@
         <v>25100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2800,13 +2794,13 @@
         <v>13612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2815,13 +2809,13 @@
         <v>38712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2830,13 @@
         <v>2134263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>2894</v>
@@ -2851,28 +2845,28 @@
         <v>2234306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>4853</v>
       </c>
       <c r="N8" s="7">
-        <v>4368568</v>
+        <v>4368569</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2908,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4407280</v>
+        <v>4407281</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2928,7 +2922,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2940,13 +2934,13 @@
         <v>4584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2955,13 +2949,13 @@
         <v>1852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2970,13 +2964,13 @@
         <v>6436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2985,13 @@
         <v>668455</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>999</v>
@@ -3006,13 +3000,13 @@
         <v>711875</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1675</v>
@@ -3021,13 +3015,13 @@
         <v>1380330</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,10 +3092,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3110,13 +3104,13 @@
         <v>38490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -3125,13 +3119,13 @@
         <v>83709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,10 +3143,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>5279</v>
@@ -3161,13 +3155,13 @@
         <v>3755641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>8580</v>
@@ -3176,13 +3170,13 @@
         <v>7083387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,7 +3232,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7921DE82-0C20-4848-A9A7-8D4A16ABEA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F9FF0B-4AC3-4C45-884E-6AAF592B08DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9398695C-5993-4FF1-A856-626CCD8C24CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D78B2E87-4C5E-4D34-A67F-BEC3DC8BB37E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="187">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -445,91 +445,100 @@
     <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,08%</t>
+    <t>0,09%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -538,13 +547,16 @@
     <t>0,21%</t>
   </si>
   <si>
+    <t>98,45%</t>
+  </si>
+  <si>
     <t>99,78%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,92%</t>
+    <t>99,91%</t>
   </si>
   <si>
     <t>99,54%</t>
@@ -553,40 +565,40 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4867E3-7666-4A99-874A-5FB199583951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E4F8F-6785-4AFA-BE41-9E4186C52AA3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1185,7 +1197,7 @@
         <v>1230</v>
       </c>
       <c r="I5" s="7">
-        <v>1319925</v>
+        <v>1319926</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1236,7 +1248,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1355,7 +1367,7 @@
         <v>3472</v>
       </c>
       <c r="N8" s="7">
-        <v>3701243</v>
+        <v>3701242</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1406,7 +1418,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1510,7 +1522,7 @@
         <v>849</v>
       </c>
       <c r="N11" s="7">
-        <v>938712</v>
+        <v>938713</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
@@ -1561,7 +1573,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE1761F-1CB3-44BF-BC2C-1556CCC23A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83788568-A772-4C27-AF4F-D7EDDD072B2E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2261,7 +2273,7 @@
         <v>1020</v>
       </c>
       <c r="N11" s="7">
-        <v>1087794</v>
+        <v>1087795</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>122</v>
@@ -2312,7 +2324,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2500,7 +2512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A20359-553A-41D5-AC1D-915B204755CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9384F2A1-065E-4FB4-9F42-600880DED364}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2621,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>15535</v>
+        <v>14317</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>135</v>
@@ -2636,31 +2648,31 @@
         <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>23026</v>
+        <v>20538</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>38561</v>
+        <v>34855</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,46 +2684,46 @@
         <v>666</v>
       </c>
       <c r="D5" s="7">
-        <v>525028</v>
+        <v>499625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>1386</v>
       </c>
       <c r="I5" s="7">
-        <v>809460</v>
+        <v>731999</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>2052</v>
       </c>
       <c r="N5" s="7">
-        <v>1334488</v>
+        <v>1231624</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,7 +2735,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2738,7 +2750,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832486</v>
+        <v>752537</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2753,7 +2765,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1373049</v>
+        <v>1266479</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2776,46 +2788,46 @@
         <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>25100</v>
+        <v>23008</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>13612</v>
+        <v>12532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>38712</v>
+        <v>35541</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,46 +2839,46 @@
         <v>1959</v>
       </c>
       <c r="D8" s="7">
-        <v>2134263</v>
+        <v>2264851</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>2894</v>
       </c>
       <c r="I8" s="7">
-        <v>2234306</v>
+        <v>2223785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>4853</v>
       </c>
       <c r="N8" s="7">
-        <v>4368569</v>
+        <v>4488635</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2890,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2159363</v>
+        <v>2287859</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2893,7 +2905,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247918</v>
+        <v>2236317</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2908,7 +2920,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4407281</v>
+        <v>4524176</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2931,46 +2943,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>4584</v>
+        <v>4280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>1852</v>
+        <v>1727</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>6436</v>
+        <v>6007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,46 +2994,46 @@
         <v>676</v>
       </c>
       <c r="D11" s="7">
-        <v>668455</v>
+        <v>642343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>999</v>
       </c>
       <c r="I11" s="7">
-        <v>711875</v>
+        <v>658576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1675</v>
       </c>
       <c r="N11" s="7">
-        <v>1380330</v>
+        <v>1300920</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3045,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3048,7 +3060,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713727</v>
+        <v>660303</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3063,7 +3075,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386766</v>
+        <v>1306927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3086,46 +3098,46 @@
         <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>45219</v>
+        <v>41606</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>38490</v>
+        <v>34797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>83709</v>
+        <v>76403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,46 +3149,46 @@
         <v>3301</v>
       </c>
       <c r="D14" s="7">
-        <v>3327746</v>
+        <v>3406818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>5279</v>
       </c>
       <c r="I14" s="7">
-        <v>3755641</v>
+        <v>3614360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>8580</v>
       </c>
       <c r="N14" s="7">
-        <v>7083387</v>
+        <v>7021178</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3200,7 @@
         <v>3360</v>
       </c>
       <c r="D15" s="7">
-        <v>3372965</v>
+        <v>3448424</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3203,7 +3215,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3794131</v>
+        <v>3649157</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3218,7 +3230,7 @@
         <v>8706</v>
       </c>
       <c r="N15" s="7">
-        <v>7167096</v>
+        <v>7097581</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
